--- a/biology/Histoire de la zoologie et de la botanique/Jean-Jacques_Kieffer/Jean-Jacques_Kieffer.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Jacques_Kieffer/Jean-Jacques_Kieffer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Jacques Kieffer (né à Guinkirchen le 17 février 1857[1] et mort à Bitche le 30 décembre 1925[2]) est un naturaliste et entomologiste  français qui se spécialisa dans l'étude des insectes parasites.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Jacques Kieffer (né à Guinkirchen le 17 février 1857 et mort à Bitche le 30 décembre 1925) est un naturaliste et entomologiste  français qui se spécialisa dans l'étude des insectes parasites.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir suivi une formation pour devenir prêtre, Jean-Jacques Kieffer enseigna les sciences naturelles à Bitche (Lorraine) tandis qu'il travaillait à la description et classification des insectes.
-Ses travaux et publications devinrent par la suite une source importante de description et de classification pour les entomologistes du début du XXe siècle, en particulier dans le domaine des guêpes parasitoïdes, des cécidomyies[3] et des  moustiques[4].
+Ses travaux et publications devinrent par la suite une source importante de description et de classification pour les entomologistes du début du XXe siècle, en particulier dans le domaine des guêpes parasitoïdes, des cécidomyies et des  moustiques.
 Jean-Jacques Kieffer a reçu le titre de Docteur honoris causa de l'université de Strasbourg en 1904.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Publications choisies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Monographie des Cécidomyides d’Europe et d’Algérie. Annales de la Société entomologique de France 69: 181-472, pl. 15-44. 1900
 Synopsis des Zoocécidies d’Europe. Annales de la Société entomologique de France 70: 233-579. 1901
@@ -583,7 +599,9 @@
           <t>Collection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Jacques Kieffer ne possédait pas de collection d'insectes. En revanche il travailla sur des spécimens des musées, en particulier sur ceux du Muséum national d'histoire naturelle qui comprend ses propres types des familles d'hyménoptères Proctotrupidae, Platygastridae, Ceraphronidae, Diapriidae, Scelionidae, Bethylidae, Dryinidae et Embolemidae. Certains autres spécimens sont détenus par le lycée technique et professionnel Henri Nominé à Sarreguemines.
 </t>
@@ -614,7 +632,9 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Un certain nombre de genre et d'espèce d'insectes ont été nommés en son honneur, par exemple :
 Kiefferia, genre de Cecidomyiinae ;
